--- a/dist/files/xls/5000304-02-001-vedomost-stekol-i-zerkal-dp.xlsx
+++ b/dist/files/xls/5000304-02-001-vedomost-stekol-i-zerkal-dp.xlsx
@@ -5,18 +5,19 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sshishenko\Desktop\ОБНОВЛЕНИЕ НА САЙТЕ\НОВЫЕ ВЕДОМОСТИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OPEN_SERVER 5.2.2\OSPanel\domains\localhost\www\dist\files\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
-    <sheet name="ВЕДОМОСТЬ СТЕКОЛ И ЗЕРКАЛ" sheetId="14" r:id="rId1"/>
+    <sheet name="ВЕДОМОСТЬ СТЕКОЛ И ЗЕРКАЛ ДП" sheetId="14" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">'ВЕДОМОСТЬ СТЕКОЛ И ЗЕРКАЛ'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ВЕДОМОСТЬ СТЕКОЛ И ЗЕРКАЛ'!$A$1:$U$43</definedName>
+    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">'ВЕДОМОСТЬ СТЕКОЛ И ЗЕРКАЛ ДП'!#REF!</definedName>
+    <definedName name="Print_Area" localSheetId="0">'ВЕДОМОСТЬ СТЕКОЛ И ЗЕРКАЛ ДП'!$A$1:$U$42</definedName>
+    <definedName name="Print_Titles" localSheetId="0">'ВЕДОМОСТЬ СТЕКОЛ И ЗЕРКАЛ ДП'!$5:$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -165,9 +166,6 @@
     <t>количество</t>
   </si>
   <si>
-    <t>док. 5000304-02-002 ВЕДОМОСТЬ СТЕКОЛ И ЗЕРКАЛ</t>
-  </si>
-  <si>
     <t>технолог ПТО</t>
   </si>
   <si>
@@ -199,13 +197,16 @@
   </si>
   <si>
     <t>Технолог ПТО</t>
+  </si>
+  <si>
+    <t>док. 5000304-02-001 ВЕДОМОСТЬ СТЕКОЛ И ЗЕРКАЛ ДИЗАЙН-ПРОЕКТА</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -239,15 +240,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="16"/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="ISOCPEUR"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <i/>
-      <sz val="20"/>
+      <sz val="18"/>
+      <name val="ISOCPEUR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
       <name val="ISOCPEUR"/>
       <family val="2"/>
       <charset val="204"/>
@@ -307,40 +317,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="24"/>
-      <name val="ISOCPEUR"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="26"/>
-      <name val="ISOCPEUR"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <name val="ISOCPEUR"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -392,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -459,31 +435,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -513,60 +467,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -598,65 +498,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -667,222 +508,131 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1169,378 +919,378 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4">
-    <pageSetUpPr fitToPage="1"/>
+    <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
-    <col min="2" max="8" width="11.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="26.875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="13.75" style="1" customWidth="1"/>
-    <col min="15" max="20" width="26.875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="32.25" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="25.375" style="14" customWidth="1"/>
+    <col min="2" max="8" width="11.625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="32.125" style="14" customWidth="1"/>
+    <col min="10" max="11" width="26.875" style="14" customWidth="1"/>
+    <col min="12" max="14" width="13.75" style="14" customWidth="1"/>
+    <col min="15" max="20" width="26.875" style="14" customWidth="1"/>
+    <col min="21" max="21" width="32.25" style="14" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="20"/>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51"/>
-    </row>
-    <row r="2" spans="1:21" s="18" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="62" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="23"/>
+    </row>
+    <row r="3" spans="1:21" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="23"/>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+    </row>
+    <row r="5" spans="1:21" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="29"/>
+    </row>
+    <row r="6" spans="1:21" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="55" t="s">
+      <c r="D6" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H6" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L6" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="19" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U6" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="9" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="53"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="15" t="s">
+    <row r="7" spans="1:21" s="2" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="9" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="53"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="15" t="s">
+    <row r="8" spans="1:21" s="2" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="16" t="s">
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="T8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="U8" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="9" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="54"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="15" t="s">
+    <row r="9" spans="1:21" s="2" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="14" t="s">
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="12" t="s">
+      <c r="Q9" s="10"/>
+      <c r="R9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="10"/>
-    </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="42"/>
-    </row>
-    <row r="7" spans="1:21" s="2" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="45"/>
-    </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-    </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="48"/>
-    </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="32"/>
-      <c r="B10" s="34"/>
+      <c r="U9" s="10"/>
+    </row>
+    <row r="10" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1551,19 +1301,19 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="32"/>
-      <c r="B11" s="30"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1574,19 +1324,19 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="32"/>
-      <c r="B12" s="30"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1597,19 +1347,19 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="32"/>
-      <c r="B13" s="30"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1620,19 +1370,19 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="32"/>
-      <c r="B14" s="30"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -1643,19 +1393,19 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="32"/>
-      <c r="B15" s="30"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1666,19 +1416,19 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="32"/>
-      <c r="B16" s="30"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+    </row>
+    <row r="16" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -1689,19 +1439,19 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="32"/>
-      <c r="B17" s="30"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -1712,19 +1462,19 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="32"/>
-      <c r="B18" s="30"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1735,19 +1485,19 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="3"/>
-    </row>
-    <row r="19" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="32"/>
-      <c r="B19" s="30"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1758,19 +1508,19 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="32"/>
-      <c r="B20" s="30"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -1781,19 +1531,19 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="3"/>
-    </row>
-    <row r="21" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="32"/>
-      <c r="B21" s="30"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -1804,19 +1554,19 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="32"/>
-      <c r="B22" s="30"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -1827,19 +1577,19 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="32"/>
-      <c r="B23" s="30"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="23" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -1850,19 +1600,19 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="3"/>
-    </row>
-    <row r="24" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="32"/>
-      <c r="B24" s="30"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -1873,19 +1623,19 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="32"/>
-      <c r="B25" s="30"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+    </row>
+    <row r="25" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -1896,19 +1646,19 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="3"/>
-    </row>
-    <row r="26" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="32"/>
-      <c r="B26" s="30"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -1919,19 +1669,19 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="32"/>
-      <c r="B27" s="30"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -1942,19 +1692,19 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="32"/>
-      <c r="B28" s="30"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -1965,19 +1715,19 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="3"/>
-    </row>
-    <row r="29" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="32"/>
-      <c r="B29" s="30"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -1988,19 +1738,19 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="3"/>
-    </row>
-    <row r="30" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="32"/>
-      <c r="B30" s="30"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="6"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -2011,19 +1761,19 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="3"/>
-    </row>
-    <row r="31" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="32"/>
-      <c r="B31" s="30"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+    </row>
+    <row r="31" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="6"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -2034,19 +1784,19 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="3"/>
-    </row>
-    <row r="32" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="32"/>
-      <c r="B32" s="30"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="6"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -2057,19 +1807,19 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="3"/>
-    </row>
-    <row r="33" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="32"/>
-      <c r="B33" s="30"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="6"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -2080,19 +1830,19 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="3"/>
-    </row>
-    <row r="34" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="32"/>
-      <c r="B34" s="30"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -2103,19 +1853,19 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="3"/>
-    </row>
-    <row r="35" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="32"/>
-      <c r="B35" s="30"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="6"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -2126,19 +1876,19 @@
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="3"/>
-    </row>
-    <row r="36" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="32"/>
-      <c r="B36" s="30"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+    </row>
+    <row r="36" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="6"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -2149,19 +1899,19 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="3"/>
-    </row>
-    <row r="37" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="32"/>
-      <c r="B37" s="30"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="6"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -2172,19 +1922,19 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="3"/>
-    </row>
-    <row r="38" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="32"/>
-      <c r="B38" s="30"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+    </row>
+    <row r="38" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="6"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -2195,19 +1945,19 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="3"/>
-    </row>
-    <row r="39" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="32"/>
-      <c r="B39" s="30"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+    </row>
+    <row r="39" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="6"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -2218,63 +1968,109 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="1:21" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="33"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="29"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+    </row>
+    <row r="40" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+    </row>
+    <row r="41" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="1:21" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="A5:U5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="O2:U2"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:U9"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B6:U6"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:U3"/>
   </mergeCells>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.47244094488188981" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="42" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"ISOCPEUR,полужирный курсив"&amp;28время создания: &amp;T   дата создания: &amp;D   лист: &amp;P   листов: &amp;N</oddHeader>
   </headerFooter>
